--- a/adwoba.xlsx
+++ b/adwoba.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Ashesi Stuff\YEAR 3\YR 3.1\DATA MINING\Group work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Ashesi Stuff\YEAR 3\YR 3.1\DATA MINING\Data_mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="6300" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="12" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="12" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="19" r:id="rId11"/>
-    <pivotCache cacheId="30" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5308,7 +5308,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[AllRegionMPs (version 2a).xlsx]Sheet6!PivotTable13</c:name>
+    <c:name>[adwoba.xlsx]Sheet6!PivotTable13</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5319,11 +5319,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5351,11 +5351,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5371,18 +5371,18 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5406,11 +5406,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5482,8 +5510,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="377615096"/>
         <c:axId val="377614768"/>
       </c:barChart>
@@ -5519,8 +5547,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5578,8 +5606,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5668,7 +5696,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[AllRegionMPs (version 2a).xlsx]Sheet8!PivotTable20</c:name>
+    <c:name>[adwoba.xlsx]Sheet8!PivotTable20</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6077,6 +6105,56 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Graph of Kids per religion</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6089,20 +6167,28 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -6134,42 +6220,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6187,11 +6251,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6216,9 +6278,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6328,7 +6390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84DF-44A0-A50F-38DC90043955}"/>
+              <c16:uniqueId val="{00000000-ADF9-4E1F-B4A8-FC704582D7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6347,42 +6409,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6400,11 +6440,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6429,9 +6467,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6501,40 +6539,40 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -6544,7 +6582,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84DF-44A0-A50F-38DC90043955}"/>
+              <c16:uniqueId val="{00000001-ADF9-4E1F-B4A8-FC704582D7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6563,42 +6601,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6616,11 +6632,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6645,9 +6659,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6721,7 +6735,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-84DF-44A0-A50F-38DC90043955}"/>
+              <c16:uniqueId val="{00000002-ADF9-4E1F-B4A8-FC704582D7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6740,42 +6754,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6793,11 +6785,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6822,9 +6812,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6898,7 +6888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-84DF-44A0-A50F-38DC90043955}"/>
+              <c16:uniqueId val="{00000003-ADF9-4E1F-B4A8-FC704582D7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6911,13 +6901,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="530278440"/>
-        <c:axId val="530279096"/>
+        <c:gapWidth val="65"/>
+        <c:axId val="537401736"/>
+        <c:axId val="537409280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530278440"/>
+        <c:axId val="537401736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6929,11 +6918,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6945,10 +6934,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -6959,7 +6949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530279096"/>
+        <c:crossAx val="537409280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6967,21 +6957,33 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530279096"/>
+        <c:axId val="537409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6991,33 +6993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530278440"/>
+        <c:crossAx val="537401736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7033,7 +7009,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -7046,8 +7027,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -7067,25 +7049,30 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -7228,18 +7215,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7247,8 +7234,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -7269,7 +7256,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7285,7 +7272,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7293,8 +7280,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7328,36 +7315,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7369,30 +7382,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7409,20 +7425,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7437,15 +7451,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7456,17 +7470,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7475,17 +7489,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -7494,21 +7507,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7527,17 +7534,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7546,17 +7552,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7565,17 +7571,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7585,8 +7590,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7596,7 +7601,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -7604,7 +7609,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7613,10 +7618,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7624,17 +7640,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7644,27 +7660,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7674,8 +7689,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7694,8 +7709,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7707,8 +7722,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7718,14 +7733,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8234,39 +8243,41 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -8279,113 +8290,149 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -8393,10 +8440,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8412,16 +8459,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8433,20 +8481,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8457,14 +8505,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -8476,13 +8524,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8494,7 +8543,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8502,16 +8551,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8521,16 +8582,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8539,14 +8612,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -8558,14 +8631,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8576,10 +8649,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -8587,7 +8669,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8595,7 +8677,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8603,16 +8685,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8625,14 +8708,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8644,19 +8727,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8665,7 +8741,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8680,8 +8756,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8691,7 +8768,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8699,9 +8776,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8712,10 +8789,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8723,7 +8806,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8734,15 +8817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8769,15 +8852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8803,20 +8886,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12380,7 +12463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12436,7 +12519,7 @@
     <dataField name="Count of Religion" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12456,7 +12539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -64001,10 +64084,2243 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B276"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>7</v>
+      </c>
+      <c r="B242" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>7</v>
+      </c>
+      <c r="B244" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>7</v>
+      </c>
+      <c r="B245" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>7</v>
+      </c>
+      <c r="B251" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>8</v>
+      </c>
+      <c r="B254" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>9</v>
+      </c>
+      <c r="B257" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>9</v>
+      </c>
+      <c r="B259" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>390</v>
+      </c>
+      <c r="B265" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>390</v>
+      </c>
+      <c r="B266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>390</v>
+      </c>
+      <c r="B267" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>390</v>
+      </c>
+      <c r="B268" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>390</v>
+      </c>
+      <c r="B269" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>390</v>
+      </c>
+      <c r="B270" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>390</v>
+      </c>
+      <c r="B271" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>390</v>
+      </c>
+      <c r="B272" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>390</v>
+      </c>
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>390</v>
+      </c>
+      <c r="B274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>390</v>
+      </c>
+      <c r="B275" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>390</v>
+      </c>
+      <c r="B276" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B276">
+    <sortCondition ref="A2:A276"/>
+    <sortCondition ref="B2:B276"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G18"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64340,12 +66656,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64416,11 +66732,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -64556,2245 +66872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B276"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3</v>
-      </c>
-      <c r="B104" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="B106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3</v>
-      </c>
-      <c r="B107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>3</v>
-      </c>
-      <c r="B111" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3</v>
-      </c>
-      <c r="B112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="B113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>3</v>
-      </c>
-      <c r="B115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>3</v>
-      </c>
-      <c r="B118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>3</v>
-      </c>
-      <c r="B119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>3</v>
-      </c>
-      <c r="B122" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>3</v>
-      </c>
-      <c r="B123" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>3</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>3</v>
-      </c>
-      <c r="B126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>3</v>
-      </c>
-      <c r="B127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>3</v>
-      </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>3</v>
-      </c>
-      <c r="B131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>3</v>
-      </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>3</v>
-      </c>
-      <c r="B133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>3</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>3</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>3</v>
-      </c>
-      <c r="B138" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>4</v>
-      </c>
-      <c r="B139" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>4</v>
-      </c>
-      <c r="B140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>4</v>
-      </c>
-      <c r="B141" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>4</v>
-      </c>
-      <c r="B142" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>4</v>
-      </c>
-      <c r="B143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>4</v>
-      </c>
-      <c r="B144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>4</v>
-      </c>
-      <c r="B146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>4</v>
-      </c>
-      <c r="B147" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>4</v>
-      </c>
-      <c r="B148" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>4</v>
-      </c>
-      <c r="B149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>4</v>
-      </c>
-      <c r="B150" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>4</v>
-      </c>
-      <c r="B151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>4</v>
-      </c>
-      <c r="B152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>4</v>
-      </c>
-      <c r="B153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>4</v>
-      </c>
-      <c r="B154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>4</v>
-      </c>
-      <c r="B155" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>4</v>
-      </c>
-      <c r="B156" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>4</v>
-      </c>
-      <c r="B157" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>4</v>
-      </c>
-      <c r="B158" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>4</v>
-      </c>
-      <c r="B159" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>4</v>
-      </c>
-      <c r="B160" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>4</v>
-      </c>
-      <c r="B161" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>4</v>
-      </c>
-      <c r="B162" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>4</v>
-      </c>
-      <c r="B163" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>4</v>
-      </c>
-      <c r="B164" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>4</v>
-      </c>
-      <c r="B165" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>4</v>
-      </c>
-      <c r="B166" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>4</v>
-      </c>
-      <c r="B167" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>4</v>
-      </c>
-      <c r="B168" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>4</v>
-      </c>
-      <c r="B169" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>4</v>
-      </c>
-      <c r="B170" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>4</v>
-      </c>
-      <c r="B171" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>4</v>
-      </c>
-      <c r="B172" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>4</v>
-      </c>
-      <c r="B173" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>4</v>
-      </c>
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>4</v>
-      </c>
-      <c r="B175" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>4</v>
-      </c>
-      <c r="B176" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>4</v>
-      </c>
-      <c r="B177" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>4</v>
-      </c>
-      <c r="B178" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>4</v>
-      </c>
-      <c r="B179" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>4</v>
-      </c>
-      <c r="B180" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>4</v>
-      </c>
-      <c r="B182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>4</v>
-      </c>
-      <c r="B183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>4</v>
-      </c>
-      <c r="B184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>4</v>
-      </c>
-      <c r="B185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>4</v>
-      </c>
-      <c r="B186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>5</v>
-      </c>
-      <c r="B187" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>5</v>
-      </c>
-      <c r="B188" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>5</v>
-      </c>
-      <c r="B189" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>5</v>
-      </c>
-      <c r="B190" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>5</v>
-      </c>
-      <c r="B191" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>5</v>
-      </c>
-      <c r="B192" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>5</v>
-      </c>
-      <c r="B193" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>5</v>
-      </c>
-      <c r="B194" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>5</v>
-      </c>
-      <c r="B195" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>5</v>
-      </c>
-      <c r="B196" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>5</v>
-      </c>
-      <c r="B198" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>5</v>
-      </c>
-      <c r="B199" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>5</v>
-      </c>
-      <c r="B200" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>5</v>
-      </c>
-      <c r="B201" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>5</v>
-      </c>
-      <c r="B202" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>5</v>
-      </c>
-      <c r="B203" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>5</v>
-      </c>
-      <c r="B204" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>5</v>
-      </c>
-      <c r="B205" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>5</v>
-      </c>
-      <c r="B206" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>5</v>
-      </c>
-      <c r="B207" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>5</v>
-      </c>
-      <c r="B208" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>5</v>
-      </c>
-      <c r="B209" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>5</v>
-      </c>
-      <c r="B210" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>5</v>
-      </c>
-      <c r="B211" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>5</v>
-      </c>
-      <c r="B212" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>5</v>
-      </c>
-      <c r="B213" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>5</v>
-      </c>
-      <c r="B214" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>5</v>
-      </c>
-      <c r="B215" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>5</v>
-      </c>
-      <c r="B216" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>5</v>
-      </c>
-      <c r="B217" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>5</v>
-      </c>
-      <c r="B218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>5</v>
-      </c>
-      <c r="B219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>5</v>
-      </c>
-      <c r="B220" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>6</v>
-      </c>
-      <c r="B227" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>6</v>
-      </c>
-      <c r="B230" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>6</v>
-      </c>
-      <c r="B234" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>6</v>
-      </c>
-      <c r="B236" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>6</v>
-      </c>
-      <c r="B237" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>6</v>
-      </c>
-      <c r="B238" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>6</v>
-      </c>
-      <c r="B239" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>6</v>
-      </c>
-      <c r="B240" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>7</v>
-      </c>
-      <c r="B242" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>7</v>
-      </c>
-      <c r="B243" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>7</v>
-      </c>
-      <c r="B244" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>7</v>
-      </c>
-      <c r="B245" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>7</v>
-      </c>
-      <c r="B246" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>7</v>
-      </c>
-      <c r="B247" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>7</v>
-      </c>
-      <c r="B248" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>7</v>
-      </c>
-      <c r="B249" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>7</v>
-      </c>
-      <c r="B250" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>7</v>
-      </c>
-      <c r="B251" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>7</v>
-      </c>
-      <c r="B252" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>7</v>
-      </c>
-      <c r="B253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>8</v>
-      </c>
-      <c r="B254" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>8</v>
-      </c>
-      <c r="B255" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>8</v>
-      </c>
-      <c r="B256" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>9</v>
-      </c>
-      <c r="B257" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>9</v>
-      </c>
-      <c r="B258" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>9</v>
-      </c>
-      <c r="B259" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>9</v>
-      </c>
-      <c r="B260" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>10</v>
-      </c>
-      <c r="B261" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>10</v>
-      </c>
-      <c r="B262" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>11</v>
-      </c>
-      <c r="B263" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>12</v>
-      </c>
-      <c r="B264" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>390</v>
-      </c>
-      <c r="B265" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>390</v>
-      </c>
-      <c r="B266" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>390</v>
-      </c>
-      <c r="B267" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>390</v>
-      </c>
-      <c r="B268" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>390</v>
-      </c>
-      <c r="B269" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>390</v>
-      </c>
-      <c r="B270" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>390</v>
-      </c>
-      <c r="B271" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>390</v>
-      </c>
-      <c r="B272" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>390</v>
-      </c>
-      <c r="B273" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>390</v>
-      </c>
-      <c r="B274" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>390</v>
-      </c>
-      <c r="B275" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>390</v>
-      </c>
-      <c r="B276" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B276">
-    <sortCondition ref="A2:A276"/>
-    <sortCondition ref="B2:B276"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66827,7 +66910,6 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
         <v>3</v>
       </c>
       <c r="D2" s="13">
@@ -66843,8 +66925,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -66857,8 +66938,7 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -66871,8 +66951,7 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -66885,8 +66964,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -66899,8 +66977,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -66913,8 +66990,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -66927,8 +67003,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -66941,8 +67016,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -66955,8 +67029,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -66969,8 +67042,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -66981,8 +67053,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -66995,8 +67066,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -67009,12 +67079,17 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <f>GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Islam ")+GETPIVOTDATA("Religion",Sheet7!$A$3,"Kids",0,"Religion","Muslim")</f>
         <v>3</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -67033,6 +67108,35 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
+      <UserInfo>
+        <DisplayName>Momodou K. Sowe</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Emmanuel Annor</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Husein Shahadu</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100983F83D7459EB64385E6030A796805BB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71936aabd821ac5aceb91150b36bbf70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="166c561a-b487-4e4e-9e74-bf50cdc9750a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c740c25b028ed61252c3b3b6ad39bf6" ns2:_="">
     <xsd:import namespace="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
@@ -67180,35 +67284,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
-      <UserInfo>
-        <DisplayName>Momodou K. Sowe</DisplayName>
-        <AccountId>58</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Emmanuel Annor</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Husein Shahadu</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E115A-3331-4FF8-AF1D-ACCC7B4ECE03}">
   <ds:schemaRefs>
@@ -67218,6 +67293,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5741244-F584-4ABC-AFF7-5B685465EC12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777E4FDA-0CB5-4371-AA0E-8F49F9F73059}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67233,20 +67324,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5741244-F584-4ABC-AFF7-5B685465EC12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/adwoba.xlsx
+++ b/adwoba.xlsx
@@ -6110,27 +6110,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6138,20 +6124,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="40000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Graph of Kids per religion</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6167,27 +6142,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6253,7 +6214,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6379,6 +6340,9 @@
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6442,7 +6406,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6634,7 +6598,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6730,6 +6694,45 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6787,7 +6790,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6880,6 +6883,45 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8889,13 +8931,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -66876,8 +66918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66915,7 +66957,9 @@
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -66927,8 +66971,12 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -66940,8 +66988,12 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -66953,8 +67005,12 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -66966,8 +67022,12 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -66979,8 +67039,12 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -66992,8 +67056,12 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -67005,8 +67073,12 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -67018,8 +67090,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -67031,8 +67107,12 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -67044,19 +67124,29 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -67068,8 +67158,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -67081,7 +67175,9 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
       <c r="E15" s="13">
         <v>1</v>
       </c>

--- a/adwoba.xlsx
+++ b/adwoba.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="6300" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="6300" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -66359,10 +66359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H19"/>
+  <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66691,6 +66691,12 @@
       </c>
       <c r="H19" s="13">
         <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>275-22-12</f>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -66918,8 +66924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/adwoba.xlsx
+++ b/adwoba.xlsx
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5383,6 +5383,49 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6111,13 +6154,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -6143,13 +6192,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -6161,7 +6216,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8369304556354913E-2"/>
+          <c:y val="0.10629955095930876"/>
+          <c:w val="0.94655704008221997"/>
+          <c:h val="0.7770220540216749"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6181,20 +6246,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6212,9 +6299,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6239,9 +6328,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6373,20 +6462,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6404,9 +6515,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6431,9 +6544,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6565,20 +6678,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6596,9 +6731,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6623,9 +6760,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6757,20 +6894,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6788,9 +6947,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6815,9 +6976,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -6943,7 +7104,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="537401736"/>
         <c:axId val="537409280"/>
       </c:barChart>
@@ -6954,17 +7116,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Children </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6976,11 +7191,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7003,38 +7217,105 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of MPs </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="537401736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -7049,14 +7330,19 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69650710927321136"/>
+          <c:y val="0.93953753534707385"/>
+          <c:w val="0.28667060502329295"/>
+          <c:h val="4.2735337582127553E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -7069,9 +7355,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -7091,30 +7376,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -8285,41 +8565,39 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -8332,149 +8610,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -8482,10 +8724,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8501,17 +8743,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8523,20 +8764,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8547,14 +8788,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -8566,14 +8807,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8585,7 +8825,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8593,28 +8833,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8624,28 +8852,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8654,14 +8870,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -8673,14 +8889,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8691,19 +8907,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -8711,7 +8918,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8719,7 +8926,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8727,17 +8934,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8750,14 +8956,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8769,12 +8975,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8783,7 +8996,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8798,9 +9011,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8810,7 +9022,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8818,9 +9030,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8831,16 +9043,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8848,7 +9054,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8929,7 +9135,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
@@ -12382,7 +12588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -12505,7 +12711,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12581,7 +12787,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -66924,8 +67130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67201,44 +67407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
-      <UserInfo>
-        <DisplayName>Momodou K. Sowe</DisplayName>
-        <AccountId>58</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Emmanuel Annor</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Husein Shahadu</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100983F83D7459EB64385E6030A796805BB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71936aabd821ac5aceb91150b36bbf70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="166c561a-b487-4e4e-9e74-bf50cdc9750a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c740c25b028ed61252c3b3b6ad39bf6" ns2:_="">
     <xsd:import namespace="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
@@ -67386,10 +67554,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
+      <UserInfo>
+        <DisplayName>Momodou K. Sowe</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Emmanuel Annor</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Husein Shahadu</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E115A-3331-4FF8-AF1D-ACCC7B4ECE03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777E4FDA-0CB5-4371-AA0E-8F49F9F73059}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -67411,19 +67627,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777E4FDA-0CB5-4371-AA0E-8F49F9F73059}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E115A-3331-4FF8-AF1D-ACCC7B4ECE03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/adwoba.xlsx
+++ b/adwoba.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="6300" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="6300" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
-    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -12588,7 +12588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -12711,7 +12711,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12787,7 +12787,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -27252,14 +27252,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43297,7 +43298,7 @@
   <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L276" sqref="A1:L276"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67130,7 +67131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -67407,6 +67408,44 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
+      <UserInfo>
+        <DisplayName>Momodou K. Sowe</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Emmanuel Annor</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Husein Shahadu</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100983F83D7459EB64385E6030A796805BB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71936aabd821ac5aceb91150b36bbf70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="166c561a-b487-4e4e-9e74-bf50cdc9750a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c740c25b028ed61252c3b3b6ad39bf6" ns2:_="">
     <xsd:import namespace="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
@@ -67554,58 +67593,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="166c561a-b487-4e4e-9e74-bf50cdc9750a">
-      <UserInfo>
-        <DisplayName>Momodou K. Sowe</DisplayName>
-        <AccountId>58</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ngan Thi Thuy Nguyen</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Emmanuel Annor</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Husein Shahadu</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777E4FDA-0CB5-4371-AA0E-8F49F9F73059}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E115A-3331-4FF8-AF1D-ACCC7B4ECE03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -67627,9 +67618,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E115A-3331-4FF8-AF1D-ACCC7B4ECE03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777E4FDA-0CB5-4371-AA0E-8F49F9F73059}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="166c561a-b487-4e4e-9e74-bf50cdc9750a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>